--- a/Code/Results/Cases/Case_8_47/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_8_47/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.010958905311423</v>
+        <v>1.007734543054579</v>
       </c>
       <c r="D2">
-        <v>1.026096763581796</v>
+        <v>1.023610414084696</v>
       </c>
       <c r="E2">
-        <v>1.023597939851995</v>
+        <v>1.021118040834839</v>
       </c>
       <c r="F2">
-        <v>1.030832858042707</v>
+        <v>1.028806088085867</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.045096190076488</v>
+        <v>1.044192339320585</v>
       </c>
       <c r="J2">
-        <v>1.032816706115193</v>
+        <v>1.029686350918975</v>
       </c>
       <c r="K2">
-        <v>1.037204117904111</v>
+        <v>1.034750333274987</v>
       </c>
       <c r="L2">
-        <v>1.034738022923007</v>
+        <v>1.032290803425662</v>
       </c>
       <c r="M2">
-        <v>1.041878725320996</v>
+        <v>1.039878181467535</v>
       </c>
       <c r="N2">
-        <v>1.034283424303614</v>
+        <v>1.026242105756286</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.041716591501461</v>
+        <v>1.040133296105886</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.037376797694811</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.035650544610938</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.021031618508727</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.01648137624778</v>
+        <v>1.012343952629751</v>
       </c>
       <c r="D3">
-        <v>1.029766316813987</v>
+        <v>1.02654006025796</v>
       </c>
       <c r="E3">
-        <v>1.028052548052467</v>
+        <v>1.024819255304373</v>
       </c>
       <c r="F3">
-        <v>1.03494466048042</v>
+        <v>1.032315232544074</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.046222802777293</v>
+        <v>1.044996630394224</v>
       </c>
       <c r="J3">
-        <v>1.03653260799255</v>
+        <v>1.032503673379469</v>
       </c>
       <c r="K3">
-        <v>1.040031987681728</v>
+        <v>1.036844254702261</v>
       </c>
       <c r="L3">
-        <v>1.038338645087843</v>
+        <v>1.035144120360389</v>
       </c>
       <c r="M3">
-        <v>1.045149120208464</v>
+        <v>1.042550678638364</v>
       </c>
       <c r="N3">
-        <v>1.038004603187852</v>
+        <v>1.027821713004223</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.044304880810242</v>
+        <v>1.042248396408174</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.039373689799958</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.037128186194479</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.021519109134522</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.019971305802263</v>
+        <v>1.015264839508017</v>
       </c>
       <c r="D4">
-        <v>1.032087338818984</v>
+        <v>1.028398429525759</v>
       </c>
       <c r="E4">
-        <v>1.030873627718655</v>
+        <v>1.027170452575913</v>
       </c>
       <c r="F4">
-        <v>1.037552919530555</v>
+        <v>1.034547911084145</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.046922781430046</v>
+        <v>1.04549489344111</v>
       </c>
       <c r="J4">
-        <v>1.038877581844379</v>
+        <v>1.034285968350961</v>
       </c>
       <c r="K4">
-        <v>1.041813328128997</v>
+        <v>1.038165778763154</v>
       </c>
       <c r="L4">
-        <v>1.040613184893108</v>
+        <v>1.036951651055267</v>
       </c>
       <c r="M4">
-        <v>1.047218293495144</v>
+        <v>1.044246514241109</v>
       </c>
       <c r="N4">
-        <v>1.040352907171522</v>
+        <v>1.028820994212441</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.045942482316691</v>
+        <v>1.043590532100486</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.040634149192315</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.038063599878694</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.021823950860093</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.021425811333816</v>
+        <v>1.016483447022771</v>
       </c>
       <c r="D5">
-        <v>1.033057831228975</v>
+        <v>1.029176876337034</v>
       </c>
       <c r="E5">
-        <v>1.032051410495867</v>
+        <v>1.028153315152731</v>
       </c>
       <c r="F5">
-        <v>1.038642009635584</v>
+        <v>1.035481275697766</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.047213942958397</v>
+        <v>1.045702180824731</v>
       </c>
       <c r="J5">
-        <v>1.039856040548786</v>
+        <v>1.035030596493888</v>
       </c>
       <c r="K5">
-        <v>1.042557978724602</v>
+        <v>1.038719365179593</v>
       </c>
       <c r="L5">
-        <v>1.041562500543551</v>
+        <v>1.037707036515827</v>
       </c>
       <c r="M5">
-        <v>1.048081913863399</v>
+        <v>1.044955180729035</v>
       </c>
       <c r="N5">
-        <v>1.04133275539952</v>
+        <v>1.029238483338508</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.046625974506583</v>
+        <v>1.044151391504058</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.041167839880758</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.038462922847728</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.021951769224937</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.021676843025733</v>
+        <v>1.016693228663991</v>
       </c>
       <c r="D6">
-        <v>1.033228680667771</v>
+        <v>1.02931422138763</v>
       </c>
       <c r="E6">
-        <v>1.032255560796097</v>
+        <v>1.02832329755714</v>
       </c>
       <c r="F6">
-        <v>1.038829801162661</v>
+        <v>1.035641787503026</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.04726690472877</v>
+        <v>1.045740377567982</v>
       </c>
       <c r="J6">
-        <v>1.040027268627273</v>
+        <v>1.035160928842954</v>
       </c>
       <c r="K6">
-        <v>1.042690879313851</v>
+        <v>1.038818928703795</v>
       </c>
       <c r="L6">
-        <v>1.041728290003966</v>
+        <v>1.037838828730479</v>
       </c>
       <c r="M6">
-        <v>1.048231857354975</v>
+        <v>1.045077977490258</v>
       </c>
       <c r="N6">
-        <v>1.041504226641519</v>
+        <v>1.029311556367595</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.046744643719786</v>
+        <v>1.044248576411759</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.04127054140444</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.038542945326459</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.021975701082054</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.020012250853401</v>
+        <v>1.015339613026826</v>
       </c>
       <c r="D7">
-        <v>1.032123627796406</v>
+        <v>1.028461271275495</v>
       </c>
       <c r="E7">
-        <v>1.030908967119674</v>
+        <v>1.027236725774791</v>
       </c>
       <c r="F7">
-        <v>1.037582758145074</v>
+        <v>1.034601841030997</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.046938801029807</v>
+        <v>1.045524415374116</v>
       </c>
       <c r="J7">
-        <v>1.038911625239268</v>
+        <v>1.034352955704965</v>
       </c>
       <c r="K7">
-        <v>1.041846335375011</v>
+        <v>1.038225022516666</v>
       </c>
       <c r="L7">
-        <v>1.040645247492072</v>
+        <v>1.03701428081352</v>
       </c>
       <c r="M7">
-        <v>1.047244946833926</v>
+        <v>1.044296978261959</v>
       </c>
       <c r="N7">
-        <v>1.040386998911937</v>
+        <v>1.028910641645901</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.045963576489272</v>
+        <v>1.043630470818097</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.040677575468673</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.038127628427854</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.021844456968505</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.01287052619406</v>
+        <v>1.009461612019562</v>
       </c>
       <c r="D8">
-        <v>1.027377868531385</v>
+        <v>1.024739924081418</v>
       </c>
       <c r="E8">
-        <v>1.02514162022055</v>
+        <v>1.022520070626474</v>
       </c>
       <c r="F8">
-        <v>1.032253214072385</v>
+        <v>1.030110818066375</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.045498566012771</v>
+        <v>1.044535771836759</v>
       </c>
       <c r="J8">
-        <v>1.034111857177869</v>
+        <v>1.030798868343238</v>
       </c>
       <c r="K8">
-        <v>1.038199332263501</v>
+        <v>1.035594889149972</v>
       </c>
       <c r="L8">
-        <v>1.035991469934029</v>
+        <v>1.033403394756297</v>
       </c>
       <c r="M8">
-        <v>1.043013323800122</v>
+        <v>1.040897799653609</v>
       </c>
       <c r="N8">
-        <v>1.035580414629349</v>
+        <v>1.027024011695685</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.042614548056549</v>
+        <v>1.040940255495673</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.038103429691015</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.036272957405985</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.021245641551066</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9995710230514586</v>
+        <v>0.9984478894845774</v>
       </c>
       <c r="D9">
-        <v>1.018545820659443</v>
+        <v>1.017749543507818</v>
       </c>
       <c r="E9">
-        <v>1.014448728158795</v>
+        <v>1.013713537057764</v>
       </c>
       <c r="F9">
-        <v>1.022411558107889</v>
+        <v>1.021779442149103</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.042710109562651</v>
+        <v>1.042550684163803</v>
       </c>
       <c r="J9">
-        <v>1.025138938699715</v>
+        <v>1.024055576080676</v>
       </c>
       <c r="K9">
-        <v>1.031345003911231</v>
+        <v>1.030561064117043</v>
       </c>
       <c r="L9">
-        <v>1.027311655058929</v>
+        <v>1.026587971994979</v>
       </c>
       <c r="M9">
-        <v>1.035151194871235</v>
+        <v>1.034528776486539</v>
       </c>
       <c r="N9">
-        <v>1.026594753577748</v>
+        <v>1.023262796553261</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.036392191479684</v>
+        <v>1.035899586060679</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.03325373436039</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.032710223236557</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.020058326607139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9903697667363083</v>
+        <v>0.991091594434522</v>
       </c>
       <c r="D10">
-        <v>1.012477302375088</v>
+        <v>1.01315430958581</v>
       </c>
       <c r="E10">
-        <v>1.007142614936273</v>
+        <v>1.007942575191632</v>
       </c>
       <c r="F10">
-        <v>1.015755267811072</v>
+        <v>1.016350800435263</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.04075350134538</v>
+        <v>1.041245574035825</v>
       </c>
       <c r="J10">
-        <v>1.018970748637365</v>
+        <v>1.019663171158803</v>
       </c>
       <c r="K10">
-        <v>1.02662487134378</v>
+        <v>1.027290052347299</v>
       </c>
       <c r="L10">
-        <v>1.021384093784697</v>
+        <v>1.022169889660091</v>
       </c>
       <c r="M10">
-        <v>1.029845765828463</v>
+        <v>1.030430981070805</v>
       </c>
       <c r="N10">
-        <v>1.020417803978009</v>
+        <v>1.021034299652915</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.032245093924084</v>
+        <v>1.032708228484076</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.029933164642313</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.030415989228515</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.019305562115756</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9877355069010489</v>
+        <v>0.9892304898360701</v>
       </c>
       <c r="D11">
-        <v>1.010923303703445</v>
+        <v>1.01221556996329</v>
       </c>
       <c r="E11">
-        <v>1.005492623892609</v>
+        <v>1.006945777971016</v>
       </c>
       <c r="F11">
-        <v>1.014612469192741</v>
+        <v>1.015727341710792</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.040430259474451</v>
+        <v>1.041194244086033</v>
       </c>
       <c r="J11">
-        <v>1.017627556134612</v>
+        <v>1.019058258989606</v>
       </c>
       <c r="K11">
-        <v>1.025642121235105</v>
+        <v>1.026910737656991</v>
       </c>
       <c r="L11">
-        <v>1.020311695450274</v>
+        <v>1.021737885153818</v>
       </c>
       <c r="M11">
-        <v>1.029263978591068</v>
+        <v>1.030358635581655</v>
       </c>
       <c r="N11">
-        <v>1.019072703987835</v>
+        <v>1.021141552901548</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.03222405190458</v>
+        <v>1.033089912836352</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.029271399381525</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.03018408117529</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.019341094032986</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9873230788557477</v>
+        <v>0.9889592813056401</v>
       </c>
       <c r="D12">
-        <v>1.010790545048177</v>
+        <v>1.012192588186158</v>
       </c>
       <c r="E12">
-        <v>1.005493838996889</v>
+        <v>1.007060495616063</v>
       </c>
       <c r="F12">
-        <v>1.014869437950907</v>
+        <v>1.016075253716926</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.040528159447185</v>
+        <v>1.041332687610239</v>
       </c>
       <c r="J12">
-        <v>1.01767381039338</v>
+        <v>1.019238367381395</v>
       </c>
       <c r="K12">
-        <v>1.025713894544615</v>
+        <v>1.027089866959819</v>
       </c>
       <c r="L12">
-        <v>1.020516537216091</v>
+        <v>1.022053666362354</v>
       </c>
       <c r="M12">
-        <v>1.0297172019195</v>
+        <v>1.030900824239026</v>
       </c>
       <c r="N12">
-        <v>1.019119023932956</v>
+        <v>1.02143615496924</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.03291093480209</v>
+        <v>1.033846845703511</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.029322146158554</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.030310730207434</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.019463421259825</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.988619144416122</v>
+        <v>0.9898604972019379</v>
       </c>
       <c r="D13">
-        <v>1.011768168730329</v>
+        <v>1.012849166813174</v>
       </c>
       <c r="E13">
-        <v>1.006789187258933</v>
+        <v>1.008010035073908</v>
       </c>
       <c r="F13">
-        <v>1.016250019240696</v>
+        <v>1.017183284013538</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.040974621161133</v>
+        <v>1.04162056668065</v>
       </c>
       <c r="J13">
-        <v>1.018818681584481</v>
+        <v>1.020006049633911</v>
       </c>
       <c r="K13">
-        <v>1.026630040667095</v>
+        <v>1.027691047277552</v>
       </c>
       <c r="L13">
-        <v>1.021743861874112</v>
+        <v>1.022941843703058</v>
       </c>
       <c r="M13">
-        <v>1.03102936710801</v>
+        <v>1.031945566816641</v>
       </c>
       <c r="N13">
-        <v>1.020265520972467</v>
+        <v>1.021823328352836</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.034226434612617</v>
+        <v>1.034950706337749</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.029967390098518</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.030733029519423</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.019655750686543</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9902921412313891</v>
+        <v>0.9910280940298415</v>
       </c>
       <c r="D14">
-        <v>1.012951408885874</v>
+        <v>1.013624382789648</v>
       </c>
       <c r="E14">
-        <v>1.008273218080713</v>
+        <v>1.009057632793098</v>
       </c>
       <c r="F14">
-        <v>1.017716968738418</v>
+        <v>1.018305482830051</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.041443102334422</v>
+        <v>1.041894452972304</v>
       </c>
       <c r="J14">
-        <v>1.020110670521919</v>
+        <v>1.020815132372229</v>
       </c>
       <c r="K14">
-        <v>1.027649799197793</v>
+        <v>1.028310495246715</v>
       </c>
       <c r="L14">
-        <v>1.02305754861681</v>
+        <v>1.023827480850551</v>
       </c>
       <c r="M14">
-        <v>1.032328869827617</v>
+        <v>1.032906776079808</v>
       </c>
       <c r="N14">
-        <v>1.021559344682389</v>
+        <v>1.022140748314556</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.035427610671477</v>
+        <v>1.035884393738393</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.030689836070853</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.031172566941826</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.01982574939573</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9910822329333818</v>
+        <v>0.9915853446205886</v>
       </c>
       <c r="D15">
-        <v>1.01349147265082</v>
+        <v>1.013977624622372</v>
       </c>
       <c r="E15">
-        <v>1.008931503325949</v>
+        <v>1.009516764213594</v>
       </c>
       <c r="F15">
-        <v>1.018340741126918</v>
+        <v>1.018771591326878</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.041638335376726</v>
+        <v>1.042002536673985</v>
       </c>
       <c r="J15">
-        <v>1.02067739945198</v>
+        <v>1.021159185931692</v>
       </c>
       <c r="K15">
-        <v>1.028092827082632</v>
+        <v>1.028570180355659</v>
       </c>
       <c r="L15">
-        <v>1.023615924627013</v>
+        <v>1.024190469429681</v>
       </c>
       <c r="M15">
-        <v>1.032854818648265</v>
+        <v>1.033277966613122</v>
       </c>
       <c r="N15">
-        <v>1.022126878432536</v>
+        <v>1.022253144529138</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.035880967269144</v>
+        <v>1.036215419013547</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.031008980420134</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.03136264603514</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.019888855785525</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9947241136858479</v>
+        <v>0.9942287109689952</v>
       </c>
       <c r="D16">
-        <v>1.015865629322529</v>
+        <v>1.015557093375413</v>
       </c>
       <c r="E16">
-        <v>1.011770799720353</v>
+        <v>1.011513116606739</v>
       </c>
       <c r="F16">
-        <v>1.020918662679487</v>
+        <v>1.020679785197252</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.042391055596574</v>
+        <v>1.042396115183935</v>
       </c>
       <c r="J16">
-        <v>1.023071169142761</v>
+        <v>1.022595668722666</v>
       </c>
       <c r="K16">
-        <v>1.029918359820035</v>
+        <v>1.02961515813931</v>
       </c>
       <c r="L16">
-        <v>1.025894668690082</v>
+        <v>1.025641487191685</v>
       </c>
       <c r="M16">
-        <v>1.034884624092637</v>
+        <v>1.034649823546782</v>
       </c>
       <c r="N16">
-        <v>1.024524047550846</v>
+        <v>1.022652655949415</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.037446502156772</v>
+        <v>1.037260912816607</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.03230288539648</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.032104966423551</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.020095128912667</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9966444916990742</v>
+        <v>0.9956909675066639</v>
       </c>
       <c r="D17">
-        <v>1.017070633978714</v>
+        <v>1.016399940555015</v>
       </c>
       <c r="E17">
-        <v>1.013175075894459</v>
+        <v>1.012536268140538</v>
       </c>
       <c r="F17">
-        <v>1.022125390823868</v>
+        <v>1.021582317453001</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.042721767639578</v>
+        <v>1.042568930736655</v>
       </c>
       <c r="J17">
-        <v>1.024232230658387</v>
+        <v>1.023315748544814</v>
       </c>
       <c r="K17">
-        <v>1.030785830087291</v>
+        <v>1.030126402490434</v>
       </c>
       <c r="L17">
-        <v>1.026955975604048</v>
+        <v>1.026328004451234</v>
       </c>
       <c r="M17">
-        <v>1.035756293026239</v>
+        <v>1.035222224534052</v>
       </c>
       <c r="N17">
-        <v>1.025686757907</v>
+        <v>1.02286794469145</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.038006153476039</v>
+        <v>1.037583976615276</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.032918819949943</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.03246928551781</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.0201748199545</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9972308990343852</v>
+        <v>0.9961800889181566</v>
       </c>
       <c r="D18">
-        <v>1.017350237100771</v>
+        <v>1.016605436314356</v>
       </c>
       <c r="E18">
-        <v>1.013424140933807</v>
+        <v>1.012710349616417</v>
       </c>
       <c r="F18">
-        <v>1.022192082785673</v>
+        <v>1.021587444606568</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.042705224206619</v>
+        <v>1.042527907665434</v>
       </c>
       <c r="J18">
-        <v>1.024398929396097</v>
+        <v>1.023388188711492</v>
       </c>
       <c r="K18">
-        <v>1.030876055816304</v>
+        <v>1.030143564740326</v>
       </c>
       <c r="L18">
-        <v>1.027015110696301</v>
+        <v>1.02631323421532</v>
       </c>
       <c r="M18">
-        <v>1.035638439820024</v>
+        <v>1.035043671729848</v>
       </c>
       <c r="N18">
-        <v>1.025853693376039</v>
+        <v>1.022826031467313</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.037674653856373</v>
+        <v>1.037204395940859</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.032970924973886</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.032468591255634</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.020123589200054</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9966654097561706</v>
+        <v>0.9957917657534788</v>
       </c>
       <c r="D19">
-        <v>1.016851842515652</v>
+        <v>1.016251958342828</v>
       </c>
       <c r="E19">
-        <v>1.01267347706459</v>
+        <v>1.012115644304647</v>
       </c>
       <c r="F19">
-        <v>1.021254367630323</v>
+        <v>1.0207717250174</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.04240846498707</v>
+        <v>1.042306302815861</v>
       </c>
       <c r="J19">
-        <v>1.023719620711951</v>
+        <v>1.022879140157127</v>
       </c>
       <c r="K19">
-        <v>1.030322877264778</v>
+        <v>1.029732865351122</v>
       </c>
       <c r="L19">
-        <v>1.026213587837246</v>
+        <v>1.025665032654107</v>
       </c>
       <c r="M19">
-        <v>1.034653406171554</v>
+        <v>1.034178617461163</v>
       </c>
       <c r="N19">
-        <v>1.025173419995643</v>
+        <v>1.022517395803009</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.03656912097042</v>
+        <v>1.036193602129781</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.032586233779121</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.032185270855127</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.019962954093714</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,105 +1555,123 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9928313847152085</v>
+        <v>0.9929134409825571</v>
       </c>
       <c r="D20">
-        <v>1.014123993756775</v>
+        <v>1.014290715332789</v>
       </c>
       <c r="E20">
-        <v>1.009104275791079</v>
+        <v>1.009360723497591</v>
       </c>
       <c r="F20">
-        <v>1.01753570347418</v>
+        <v>1.017699000643118</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.041303456756191</v>
+        <v>1.041561484647649</v>
       </c>
       <c r="J20">
-        <v>1.020641468985515</v>
+        <v>1.020720297516445</v>
       </c>
       <c r="K20">
-        <v>1.027922954480899</v>
+        <v>1.028086849514765</v>
       </c>
       <c r="L20">
-        <v>1.0229889045352</v>
+        <v>1.023240948932155</v>
       </c>
       <c r="M20">
-        <v>1.031277061062072</v>
+        <v>1.031437613618014</v>
       </c>
       <c r="N20">
-        <v>1.022090896940687</v>
+        <v>1.021430658979106</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.033367193476876</v>
+        <v>1.033494254941991</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.030893341792726</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.031025820957176</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.019483881931356</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9855878276485581</v>
+        <v>0.9878391194572201</v>
       </c>
       <c r="D21">
-        <v>1.009320000404881</v>
+        <v>1.011224819418406</v>
       </c>
       <c r="E21">
-        <v>1.003284948420772</v>
+        <v>1.005403497534015</v>
       </c>
       <c r="F21">
-        <v>1.012172149816069</v>
+        <v>1.013812438898981</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.039695489938706</v>
+        <v>1.040761515398397</v>
       </c>
       <c r="J21">
-        <v>1.015700723538867</v>
+        <v>1.017854230397865</v>
       </c>
       <c r="K21">
-        <v>1.024126927950443</v>
+        <v>1.025996609599775</v>
       </c>
       <c r="L21">
-        <v>1.018204352559836</v>
+        <v>1.020283217062926</v>
       </c>
       <c r="M21">
-        <v>1.026926529146795</v>
+        <v>1.028536771765461</v>
       </c>
       <c r="N21">
-        <v>1.017143135068793</v>
+        <v>1.020638825287922</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.029882852555445</v>
+        <v>1.031157269596134</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.02821265229943</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.029551520743649</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.019053314946284</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9809646982906016</v>
+        <v>0.9846146634739902</v>
       </c>
       <c r="D22">
-        <v>1.00626008200201</v>
+        <v>1.00929241072097</v>
       </c>
       <c r="E22">
-        <v>0.9996036907265268</v>
+        <v>1.002926006662263</v>
       </c>
       <c r="F22">
-        <v>1.008810917526929</v>
+        <v>1.011405714984738</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.038663188865382</v>
+        <v>1.040255193779209</v>
       </c>
       <c r="J22">
-        <v>1.012563717271618</v>
+        <v>1.016045308529695</v>
       </c>
       <c r="K22">
-        <v>1.021708537212178</v>
+        <v>1.024682003736794</v>
       </c>
       <c r="L22">
-        <v>1.015183002671312</v>
+        <v>1.018439720790884</v>
       </c>
       <c r="M22">
-        <v>1.024209826099993</v>
+        <v>1.026754558784867</v>
       </c>
       <c r="N22">
-        <v>1.014001673892825</v>
+        <v>1.02010037026918</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.027732728606616</v>
+        <v>1.029746747486658</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.026489097796324</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.028607123577858</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.018786277717313</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.983405557009763</v>
+        <v>0.9862369981541896</v>
       </c>
       <c r="D23">
-        <v>1.007866206166982</v>
+        <v>1.010235952578415</v>
       </c>
       <c r="E23">
-        <v>1.001543357475105</v>
+        <v>1.004156066117735</v>
       </c>
       <c r="F23">
-        <v>1.01058428531807</v>
+        <v>1.012617540205251</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.039201559161088</v>
+        <v>1.040481677223406</v>
       </c>
       <c r="J23">
-        <v>1.014213730909437</v>
+        <v>1.016918615535374</v>
       </c>
       <c r="K23">
-        <v>1.02297418672873</v>
+        <v>1.025299145165822</v>
       </c>
       <c r="L23">
-        <v>1.016772197837668</v>
+        <v>1.019334723650142</v>
       </c>
       <c r="M23">
-        <v>1.025640917581458</v>
+        <v>1.027635996743925</v>
       </c>
       <c r="N23">
-        <v>1.01565403073927</v>
+        <v>1.02026770723493</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.02886536116937</v>
+        <v>1.030444356796458</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.027374249717149</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.029032817507648</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.018897515588705</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9927773669925219</v>
+        <v>0.992877160413568</v>
       </c>
       <c r="D24">
-        <v>1.014059655815148</v>
+        <v>1.014240607444772</v>
       </c>
       <c r="E24">
-        <v>1.009016033301146</v>
+        <v>1.009288481953599</v>
       </c>
       <c r="F24">
-        <v>1.017423050244884</v>
+        <v>1.017598874563601</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.041258136651006</v>
+        <v>1.041524338873841</v>
       </c>
       <c r="J24">
-        <v>1.020556309295676</v>
+        <v>1.020652182297952</v>
       </c>
       <c r="K24">
-        <v>1.027844286288893</v>
+        <v>1.028022173617837</v>
       </c>
       <c r="L24">
-        <v>1.022886645901212</v>
+        <v>1.02315442155691</v>
       </c>
       <c r="M24">
-        <v>1.031150953479387</v>
+        <v>1.031323825630474</v>
       </c>
       <c r="N24">
-        <v>1.022005616314321</v>
+        <v>1.021384495453704</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.033226243362579</v>
+        <v>1.033363061465266</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.030810129528597</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.030949829164566</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.019456042441507</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.003132205394994</v>
+        <v>1.001327841500588</v>
       </c>
       <c r="D25">
-        <v>1.020922408471186</v>
+        <v>1.019580018317545</v>
       </c>
       <c r="E25">
-        <v>1.0173097458281</v>
+        <v>1.016007812220651</v>
       </c>
       <c r="F25">
-        <v>1.025035921536123</v>
+        <v>1.023950812903733</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.043480121528223</v>
+        <v>1.043078774105128</v>
       </c>
       <c r="J25">
-        <v>1.027554616178894</v>
+        <v>1.025810600966823</v>
       </c>
       <c r="K25">
-        <v>1.033204386569391</v>
+        <v>1.031881797524842</v>
       </c>
       <c r="L25">
-        <v>1.02964516417994</v>
+        <v>1.028362607876133</v>
       </c>
       <c r="M25">
-        <v>1.037257632405956</v>
+        <v>1.036188362075775</v>
       </c>
       <c r="N25">
-        <v>1.02901386159603</v>
+        <v>1.024180516507343</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.038059303175174</v>
+        <v>1.03721304402129</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.034597147778447</v>
+        <v>1.033675599203097</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.020371309084913</v>
       </c>
     </row>
   </sheetData>
